--- a/schedule_2021_7.xlsx
+++ b/schedule_2021_7.xlsx
@@ -480,44 +480,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Barna Dávid</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Barna Dávid</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Nemes Péter</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Kovács Gusztáv Márk</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gregor Patrik</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Földi Bence</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Barna Dávid</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Hugyecz Árpád</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Hugyecz Árpád</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Kovács Gusztáv Márk</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Földi Bence</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Nagy Roland</t>
+          <t>Gregor Patrik</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barna Dávid</t>
+          <t>Földi Bence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,27 +527,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nemes Péter</t>
+          <t>Ördög Márk</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Hugyecz Árpád</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Kovács Gusztáv Márk</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gregor Patrik</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ördög Márk</t>
+          <t>Nagy Roland</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ördög Márk</t>
+          <t>Nagy Roland</t>
         </is>
       </c>
     </row>
@@ -564,23 +564,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Hugyecz Árpád</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biró Levente</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nagy Roland</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Ördög Márk</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nagy Roland</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Nagy Roland</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Gregor Patrik</t>
+          <t>Ördög Márk</t>
         </is>
       </c>
     </row>
@@ -635,22 +639,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nagy Dávid</t>
+          <t>Czimmer Sándor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hajdu Krisztián</t>
+          <t>Czimmer Sándor</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kormányos Patrik</t>
+          <t>Koleszár Zoltán</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Peti Márk</t>
+          <t>Czimmer Sándor</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -660,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gregor Patrik</t>
+          <t>Balla Mihály</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -672,37 +676,37 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Czimmer Sándor</t>
+          <t>Nagy Dávid</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Peti Márk</t>
+          <t>Hajdu Krisztián</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Peti Márk</t>
+          <t>Kormányos Patrik</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paragi Gábor</t>
+          <t>Gregor Patrik</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Paragi Gábor</t>
+          <t>Hajdu Krisztián</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>Barna Dávid</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Hajdu Krisztián</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Kormányos Patrik</t>
         </is>
       </c>
     </row>
@@ -724,55 +728,59 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Czimmer Sándor</t>
+          <t>Paragi Gábor</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Kormányos Patrik</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Gregor Patrik</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kormányos Patrik</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Emődi Máté</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Peti Márk</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Peti Márk</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Peti Márk</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Paragi Gábor</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Hajdu Krisztián</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Barna Dávid</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Paragi Gábor</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Czimmer Sándor</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Koleszár Zoltán</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Gregor Patrik</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Kormányos Patrik</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Balla Mihály</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Hajdu Krisztián</t>
         </is>
       </c>
     </row>
@@ -847,7 +855,11 @@
           <t>8/5:40</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Biró Levente</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Földi Bence</t>
@@ -887,7 +899,11 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Biró Levente</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr"/>
@@ -952,7 +968,11 @@
     </row>
     <row r="8">
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Emődi Máté</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Paragi Gábor</t>
@@ -978,7 +998,11 @@
     <row r="9">
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Emődi Máté</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Nagy Dávid</t>
